--- a/data/Election data.xlsx
+++ b/data/Election data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eef0741620b644d4/Princípy datovej vedy/Projekt Git/PDV-Slovak-election-prediction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="11_F25DC773A252ABDACC10484E491A75185ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2944BA5-DFF4-4133-ADBD-2D9D4FE38095}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="11_F25DC773A252ABDACC10484E491A75185ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5611D49-645B-4E4E-A33C-D046F33B7926}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7815" yWindow="3780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
-    <t>Polotický subjekt</t>
-  </si>
-  <si>
     <t>Zelení</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>REPUBLIKA</t>
+  </si>
+  <si>
+    <t>Politický subjekt</t>
   </si>
 </sst>
 </file>
@@ -440,6 +440,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -707,9 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.28515625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -718,7 +720,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1">
         <v>2012</v>
@@ -735,18 +737,18 @@
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4">
         <v>128908</v>
@@ -760,18 +762,18 @@
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4">
         <v>225386</v>
@@ -785,10 +787,10 @@
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C6" s="5">
         <v>287611</v>
@@ -802,10 +804,10 @@
     </row>
     <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4">
         <v>315558</v>
@@ -819,34 +821,34 @@
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4">
         <v>209779</v>
@@ -860,10 +862,10 @@
     </row>
     <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="4">
         <v>737481</v>
@@ -877,26 +879,26 @@
     </row>
     <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4">
         <v>16278</v>
@@ -907,18 +909,18 @@
     </row>
     <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="C17" s="4">
         <v>169593</v>
@@ -929,23 +931,23 @@
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="5">
         <v>779</v>
@@ -953,18 +955,18 @@
     </row>
     <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="4">
         <v>287611</v>
@@ -972,10 +974,10 @@
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="4">
         <v>6938</v>
@@ -983,10 +985,10 @@
     </row>
     <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4">
         <v>172860</v>
@@ -1000,10 +1002,10 @@
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="4">
         <v>105495</v>
@@ -1011,18 +1013,18 @@
     </row>
     <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C27" s="4">
         <v>2426</v>
@@ -1030,7 +1032,7 @@
     </row>
     <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="4">
         <v>18845</v>
@@ -1038,7 +1040,7 @@
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="4">
         <v>4559</v>
@@ -1046,7 +1048,7 @@
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="4">
         <v>1998</v>
@@ -1054,7 +1056,7 @@
     </row>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="4">
         <v>6522</v>
@@ -1062,7 +1064,7 @@
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="4">
         <v>17541</v>
@@ -1070,7 +1072,7 @@
     </row>
     <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="4">
         <v>1777</v>
@@ -1078,7 +1080,7 @@
     </row>
     <row r="34" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="4">
         <v>3182</v>
@@ -1086,7 +1088,7 @@
     </row>
     <row r="35" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="4">
         <v>3428</v>
@@ -1094,7 +1096,7 @@
     </row>
     <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="4">
         <v>21785</v>
@@ -1105,7 +1107,7 @@
     </row>
     <row r="37" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="4">
         <v>146205</v>
@@ -1113,7 +1115,7 @@
     </row>
     <row r="38" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="4">
         <v>3595</v>
@@ -1121,7 +1123,7 @@
     </row>
     <row r="39" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="4">
         <v>8191</v>
@@ -1129,7 +1131,7 @@
     </row>
     <row r="40" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40" s="4">
         <v>88220</v>
@@ -1137,7 +1139,7 @@
     </row>
     <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="4">
         <v>1966</v>
@@ -1145,7 +1147,7 @@
     </row>
     <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" s="4">
         <v>166325</v>
@@ -1153,7 +1155,7 @@
     </row>
     <row r="43" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" s="4">
         <v>9260</v>
@@ -1161,7 +1163,7 @@
     </row>
     <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="4">
         <v>4194</v>
@@ -1169,7 +1171,7 @@
     </row>
     <row r="45" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" s="5">
         <v>200780</v>
@@ -1180,7 +1182,7 @@
     </row>
     <row r="46" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D46" s="4">
         <v>2018</v>
@@ -1188,7 +1190,7 @@
     </row>
     <row r="47" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D47" s="4">
         <v>991</v>
@@ -1199,7 +1201,7 @@
     </row>
     <row r="48" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D48" s="4">
         <v>809</v>
@@ -1207,7 +1209,7 @@
     </row>
     <row r="49" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D49" s="4">
         <v>84507</v>
@@ -1215,7 +1217,7 @@
     </row>
     <row r="50" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D50" s="4">
         <v>1887</v>
@@ -1223,7 +1225,7 @@
     </row>
     <row r="51" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D51" s="4">
         <v>112662</v>
@@ -1234,7 +1236,7 @@
     </row>
     <row r="52" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E52" s="4">
         <v>1261</v>
@@ -1242,7 +1244,7 @@
     </row>
     <row r="53" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E53" s="4">
         <v>15925</v>
@@ -1250,7 +1252,7 @@
     </row>
     <row r="54" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E54" s="4">
         <v>9358</v>
@@ -1258,7 +1260,7 @@
     </row>
     <row r="55" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E55" s="4">
         <v>1817</v>
@@ -1266,7 +1268,7 @@
     </row>
     <row r="56" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E56" s="4">
         <v>2401</v>
@@ -1274,7 +1276,7 @@
     </row>
     <row r="57" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E57" s="4">
         <v>3486</v>
@@ -1282,7 +1284,7 @@
     </row>
     <row r="58" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E58" s="4">
         <v>1262</v>
@@ -1290,7 +1292,7 @@
     </row>
     <row r="59" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E59" s="4">
         <v>7935</v>
@@ -1298,7 +1300,7 @@
     </row>
     <row r="60" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E60" s="4">
         <v>1332</v>
@@ -1306,7 +1308,7 @@
     </row>
     <row r="61" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E61" s="4">
         <v>2786</v>
@@ -1314,7 +1316,7 @@
     </row>
     <row r="62" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E62" s="4">
         <v>436415</v>
@@ -1322,7 +1324,7 @@
     </row>
     <row r="63" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E63" s="4">
         <v>2315</v>
@@ -1330,7 +1332,7 @@
     </row>
     <row r="64" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E64" s="4">
         <v>771</v>
@@ -1338,7 +1340,7 @@
     </row>
     <row r="65" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D65" s="5">
         <v>200780</v>
@@ -1349,7 +1351,7 @@
     </row>
     <row r="66" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E66" s="4">
         <v>2407</v>
@@ -1357,7 +1359,7 @@
     </row>
     <row r="67" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="4">
         <v>141099</v>
